--- a/biology/Zoologie/Caria_ino/Caria_ino.xlsx
+++ b/biology/Zoologie/Caria_ino/Caria_ino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caria ino est une espèce d'insectes lépidoptères de la famille des Riodinidae et du genre Caria.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Caria ino a été décrit par Frederick DuCane Godman et Osbert Salvin en 1886[1].
-Nom vernaculaire
-Caria ino se nomme Red-bordered Metalmark ou 'Schaus' Metalmark en anglais[1].
-Sous-espèces
-Caria ino ino
-Caria ino melicerta Schaus, 1890</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria ino a été décrit par Frederick DuCane Godman et Osbert Salvin en 1886.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caria ino est un petit papillon d'une envergure de 20 mm à 25 mm de couleur marron, avec une marge rouge divisée par une ligne métallisée[2].
-Le revers est rouge chez le mâle, orange chez la femelle.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria ino se nomme Red-bordered Metalmark ou 'Schaus' Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -575,16 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il hiverne au stade de chenille.
-L'imago vole de mars à novembre au Texas[2].
-Plante hôte
-La plante hôte de sa chenille est Celtis pallida[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Caria ino ino
+Caria ino melicerta Schaus, 1890</t>
         </is>
       </c>
     </row>
@@ -609,14 +627,156 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria ino est un petit papillon d'une envergure de 20 mm à 25 mm de couleur marron, avec une marge rouge divisée par une ligne métallisée.
+Le revers est rouge chez le mâle, orange chez la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caria_ino</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caria_ino</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne au stade de chenille.
+L'imago vole de mars à novembre au Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caria_ino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caria_ino</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Celtis pallida.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caria_ino</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caria_ino</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caria ino est présent au Texas et au Mexique[1].
-Biotope
-Il réside dans la forêt.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caria ino est présent au Texas et au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Caria_ino</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caria_ino</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt.
 </t>
         </is>
       </c>
